--- a/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
@@ -3849,9 +3849,6 @@
     <t>;Check FromDate and ToDate.</t>
   </si>
   <si>
-    <t>"10{RIGHT}20{RIGHT}50{LEFT}{LEFT}"</t>
-  </si>
-  <si>
     <t>;Verify</t>
   </si>
   <si>
@@ -4035,6 +4032,10 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4564,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4797,7 +4798,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5006,7 +5007,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
@@ -5073,7 +5074,7 @@
         <v>847</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J17" s="11" t="b">
         <v>1</v>
@@ -5138,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5"/>
@@ -5247,7 +5248,7 @@
         <v>851</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J23" s="11">
         <v>31</v>
@@ -5282,7 +5283,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
@@ -5338,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5365,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5392,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5419,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
@@ -5459,7 +5460,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
@@ -5492,10 +5493,10 @@
         <v>851</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5522,10 +5523,10 @@
         <v>851</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -5537,7 +5538,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
@@ -5591,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5617,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -5643,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -5669,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5707,7 +5708,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="5"/>
@@ -5740,10 +5741,10 @@
         <v>851</v>
       </c>
       <c r="I43" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="J43" s="18" t="s">
         <v>870</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>871</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -5770,10 +5771,10 @@
         <v>851</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -5785,7 +5786,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="5"/>
@@ -5865,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
@@ -5977,7 +5978,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="5"/>
@@ -6057,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6169,7 +6170,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="5"/>
@@ -6249,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
@@ -6361,7 +6362,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6441,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="5"/>
@@ -6553,7 +6554,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="5"/>
@@ -6633,7 +6634,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
@@ -6745,7 +6746,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="5"/>
@@ -6825,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
@@ -6937,7 +6938,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -7017,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="5"/>
@@ -7129,7 +7130,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="5"/>
@@ -7209,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="5"/>
@@ -7321,7 +7322,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="5"/>
@@ -7401,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="5"/>
@@ -7513,7 +7514,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="5"/>
@@ -7593,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="5"/>
@@ -7705,7 +7706,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="5"/>
@@ -7785,7 +7786,7 @@
         <v>4</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="5"/>
@@ -7897,7 +7898,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="5"/>
@@ -8007,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="5"/>
@@ -8119,7 +8120,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="5"/>
@@ -8199,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="5"/>
@@ -8311,7 +8312,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="5"/>
@@ -8391,7 +8392,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="5"/>
@@ -8503,7 +8504,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="5"/>
@@ -8583,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I161" s="11"/>
       <c r="J161" s="5"/>

--- a/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
@@ -3660,9 +3660,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3680,10 +3677,6 @@
     <t>;Add one device.</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -4037,6 +4030,12 @@
   <si>
     <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
   </si>
 </sst>
 </file>
@@ -4566,7 +4565,7 @@
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4657,7 +4656,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4698,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4729,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4754,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4779,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4798,7 +4797,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4817,13 +4816,13 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>804</v>
+        <v>904</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>779</v>
@@ -4845,7 +4844,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4910,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>798</v>
+        <v>903</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4957,10 +4956,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -4984,7 +4983,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -5007,7 +5006,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
@@ -5071,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J17" s="11" t="b">
         <v>1</v>
@@ -5106,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
@@ -5139,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5"/>
@@ -5170,7 +5169,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -5214,7 +5213,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
@@ -5245,10 +5244,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J23" s="11">
         <v>31</v>
@@ -5264,7 +5263,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
@@ -5283,7 +5282,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
@@ -5308,7 +5307,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>2</v>
@@ -5333,13 +5332,13 @@
         <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5360,13 +5359,13 @@
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5387,13 +5386,13 @@
         <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5414,13 +5413,13 @@
         <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
@@ -5460,7 +5459,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
@@ -5484,19 +5483,19 @@
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5514,19 +5513,19 @@
         <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -5538,7 +5537,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
@@ -5562,7 +5561,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>2</v>
@@ -5586,13 +5585,13 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5612,13 +5611,13 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -5638,13 +5637,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -5664,13 +5663,13 @@
         <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5708,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="5"/>
@@ -5732,19 +5731,19 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -5762,19 +5761,19 @@
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -5786,7 +5785,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="5"/>
@@ -5840,7 +5839,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
@@ -5866,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
@@ -5892,7 +5891,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
@@ -5930,7 +5929,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5960,10 +5959,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J52" s="5">
         <v>24</v>
@@ -5978,7 +5977,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="5"/>
@@ -6032,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
@@ -6058,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6084,7 +6083,7 @@
         <v>13</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
@@ -6122,7 +6121,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="5"/>
@@ -6152,10 +6151,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J60" s="5">
         <v>23</v>
@@ -6170,7 +6169,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="5"/>
@@ -6224,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="5"/>
@@ -6250,7 +6249,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
@@ -6276,7 +6275,7 @@
         <v>13</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
@@ -6314,7 +6313,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="5"/>
@@ -6344,10 +6343,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J68" s="5">
         <v>16</v>
@@ -6362,7 +6361,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6416,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="5"/>
@@ -6442,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="5"/>
@@ -6468,7 +6467,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
@@ -6506,7 +6505,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="5"/>
@@ -6536,10 +6535,10 @@
         <v>7</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -6554,7 +6553,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="5"/>
@@ -6608,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
@@ -6634,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
@@ -6660,7 +6659,7 @@
         <v>13</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="5"/>
@@ -6698,7 +6697,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="5"/>
@@ -6728,10 +6727,10 @@
         <v>7</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J84" s="11">
         <v>30</v>
@@ -6746,7 +6745,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="5"/>
@@ -6800,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
@@ -6826,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
@@ -6852,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
@@ -6890,7 +6889,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="5"/>
@@ -6920,10 +6919,10 @@
         <v>7</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J92" s="11">
         <v>29</v>
@@ -6938,7 +6937,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -6992,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="5"/>
@@ -7018,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="5"/>
@@ -7044,7 +7043,7 @@
         <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="5"/>
@@ -7082,7 +7081,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="5"/>
@@ -7112,10 +7111,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J100" s="11">
         <v>28</v>
@@ -7130,7 +7129,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="5"/>
@@ -7184,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I103" s="11"/>
       <c r="J103" s="5"/>
@@ -7210,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="5"/>
@@ -7236,7 +7235,7 @@
         <v>13</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="5"/>
@@ -7274,7 +7273,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="5"/>
@@ -7304,10 +7303,10 @@
         <v>7</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J108" s="11">
         <v>1</v>
@@ -7322,7 +7321,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="5"/>
@@ -7376,7 +7375,7 @@
         <v>4</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="5"/>
@@ -7402,7 +7401,7 @@
         <v>4</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="5"/>
@@ -7428,7 +7427,7 @@
         <v>13</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="5"/>
@@ -7466,7 +7465,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="5"/>
@@ -7496,10 +7495,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J116" s="11">
         <v>12</v>
@@ -7514,7 +7513,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="5"/>
@@ -7568,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I119" s="11"/>
       <c r="J119" s="5"/>
@@ -7594,7 +7593,7 @@
         <v>4</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="5"/>
@@ -7620,7 +7619,7 @@
         <v>13</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="5"/>
@@ -7658,7 +7657,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="5"/>
@@ -7688,10 +7687,10 @@
         <v>7</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J124" s="11">
         <v>11</v>
@@ -7706,7 +7705,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="5"/>
@@ -7760,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I127" s="11"/>
       <c r="J127" s="5"/>
@@ -7786,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="5"/>
@@ -7812,7 +7811,7 @@
         <v>13</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="5"/>
@@ -7850,7 +7849,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="5"/>
@@ -7880,10 +7879,10 @@
         <v>7</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J132" s="11">
         <v>6</v>
@@ -7898,7 +7897,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="5"/>
@@ -7952,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J135" s="11" t="b">
         <v>1</v>
@@ -7982,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="5"/>
@@ -8008,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="5"/>
@@ -8034,7 +8033,7 @@
         <v>13</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="5"/>
@@ -8072,7 +8071,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="5"/>
@@ -8102,10 +8101,10 @@
         <v>7</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J141" s="11">
         <v>1</v>
@@ -8120,7 +8119,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="5"/>
@@ -8174,7 +8173,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="5"/>
@@ -8200,7 +8199,7 @@
         <v>4</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="5"/>
@@ -8226,7 +8225,7 @@
         <v>13</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="5"/>
@@ -8264,7 +8263,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="5"/>
@@ -8294,10 +8293,10 @@
         <v>7</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J149" s="11">
         <v>5</v>
@@ -8312,7 +8311,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="5"/>
@@ -8366,7 +8365,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="5"/>
@@ -8392,7 +8391,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="5"/>
@@ -8418,7 +8417,7 @@
         <v>13</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="5"/>
@@ -8456,7 +8455,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="5"/>
@@ -8486,10 +8485,10 @@
         <v>7</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J157" s="11">
         <v>4</v>
@@ -8504,7 +8503,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="5"/>
@@ -8558,7 +8557,7 @@
         <v>4</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="5"/>
@@ -8584,7 +8583,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I161" s="11"/>
       <c r="J161" s="5"/>
@@ -8610,7 +8609,7 @@
         <v>13</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="5"/>
@@ -8648,7 +8647,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="5"/>
@@ -8678,10 +8677,10 @@
         <v>7</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J165" s="11">
         <v>1</v>
@@ -8784,10 +8783,10 @@
         <v>169</v>
       </c>
       <c r="D170" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>577</v>
@@ -8796,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -8810,10 +8809,10 @@
         <v>170</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>185</v>
@@ -8834,7 +8833,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>583</v>
@@ -8858,10 +8857,10 @@
         <v>172</v>
       </c>
       <c r="D173" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E173" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>95</v>
@@ -9572,7 +9571,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -10454,7 +10453,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -10983,7 +10982,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -11515,7 +11514,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -12437,7 +12436,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -12445,10 +12444,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -12456,7 +12455,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -12515,7 +12514,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -12523,7 +12522,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -12531,7 +12530,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -12539,7 +12538,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -12547,7 +12546,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -12555,7 +12554,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -12563,7 +12562,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -12571,7 +12570,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -12579,7 +12578,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -12595,7 +12594,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -12603,7 +12602,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -12627,7 +12626,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -12635,7 +12634,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -12643,7 +12642,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -12651,7 +12650,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -12675,7 +12674,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -12683,7 +12682,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -12691,7 +12690,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -12699,7 +12698,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -16272,7 +16271,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -19235,7 +19234,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -19358,10 +19357,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -19388,7 +19387,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -19403,10 +19402,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -19514,7 +19513,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -19679,7 +19678,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -19736,7 +19735,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -19949,10 +19948,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -20159,7 +20158,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -20198,7 +20197,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -20249,10 +20248,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -20342,7 +20341,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -20513,7 +20512,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -20528,7 +20527,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -20597,7 +20596,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -20624,13 +20623,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -20792,7 +20791,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -21245,7 +21244,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -21266,10 +21265,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -21314,7 +21313,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -21356,7 +21355,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -21506,7 +21505,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -21527,7 +21526,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -21590,7 +21589,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -21602,10 +21601,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -21713,7 +21712,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -21725,7 +21724,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -21788,7 +21787,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -21938,7 +21937,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -21995,7 +21994,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -22049,7 +22048,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -22079,7 +22078,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -22396,7 +22395,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -22519,10 +22518,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -22549,7 +22548,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -22564,10 +22563,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -22675,7 +22674,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -22840,7 +22839,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -22897,7 +22896,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -23110,10 +23109,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -23320,7 +23319,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -23359,7 +23358,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -23410,10 +23409,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -23503,7 +23502,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -23674,7 +23673,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -23689,7 +23688,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -23758,7 +23757,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -23785,13 +23784,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -23953,7 +23952,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -24406,7 +24405,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -24427,10 +24426,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -24475,7 +24474,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -24517,7 +24516,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -24667,7 +24666,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -24688,7 +24687,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -24751,7 +24750,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -24763,10 +24762,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -24874,7 +24873,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -24886,7 +24885,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -24949,7 +24948,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -25099,7 +25098,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -25156,7 +25155,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -25210,7 +25209,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -25240,7 +25239,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -25683,7 +25682,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -25725,7 +25724,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -26946,7 +26945,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -27924,7 +27923,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -28035,7 +28034,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -28047,7 +28046,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -28616,7 +28615,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -28628,13 +28627,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -28781,7 +28780,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -29057,10 +29056,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -29111,7 +29110,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -29177,7 +29176,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -29216,7 +29215,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -29234,7 +29233,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -29522,10 +29521,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -29558,7 +29557,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -29570,7 +29569,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -29621,7 +29620,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -29633,13 +29632,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -29654,7 +29653,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -29705,7 +29704,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -29738,7 +29737,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -29750,7 +29749,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -29765,7 +29764,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -29777,7 +29776,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -31175,7 +31174,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -31190,13 +31189,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -31205,16 +31204,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -31232,7 +31231,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -31244,13 +31243,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -31330,7 +31329,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -31345,25 +31344,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -31378,7 +31377,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -31390,10 +31389,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -31446,180 +31445,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8890,7 +8890,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G171:G173 G2:G169">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D168:D169 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D168:D169 D3:D4 D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F173">

--- a/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST572_DurationBoxesInShowTheTimeRangeSelection.xlsx
@@ -4024,18 +4024,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4564,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4578,7 +4580,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4747,7 +4749,7 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41124</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4794,11 +4796,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>901</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4816,10 +4816,10 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>798</v>
@@ -4835,11 +4835,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4859,8 +4857,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4886,10 +4888,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4949,7 +4949,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4976,7 +4976,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4999,7 +4999,7 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5022,7 +5022,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5050,10 +5050,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>782</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5087,7 +5087,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5116,11 +5116,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5150,9 +5148,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>784</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5209,6 +5209,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5419,7 +5423,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
@@ -5617,7 +5621,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -5669,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
